--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>629637.9120358733</v>
+        <v>627199.5220774566</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11743869.33194829</v>
+        <v>11743869.33194828</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>248.0893494913713</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>40.97528933882258</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>83.09405498755939</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>254.5167172826904</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.2205257453323</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>15.07437110675894</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>115.6841325164233</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>315.9968882787536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247588</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>23.19387651807325</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>1.64230657388277</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>129.9677809246377</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>223.097775381403</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>261.543264820456</v>
+        <v>139.3948594558967</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.4423155261871</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833921</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>83.07736723265261</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>81.37259901119255</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223888</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465662</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>251.7801198313574</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456819</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>116.9020714724189</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520917</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>41.02686156550138</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890389</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>35.63623515385375</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>8.616048582069942</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>41.02686156550408</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>26.13627195706031</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.15578456998</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>176.5196562849271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>26.13627195705873</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>125.285163539206</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>187.6271126132399</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1086.359022345078</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C2" t="n">
-        <v>1086.359022345078</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D2" t="n">
-        <v>728.0933237383276</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>728.0933237383276</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>317.1074189487201</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3173.92597198594</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2920.395495259776</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.332607916206</v>
+        <v>2988.141956006683</v>
       </c>
       <c r="W2" t="n">
-        <v>2236.563952646091</v>
+        <v>2635.373300736569</v>
       </c>
       <c r="X2" t="n">
-        <v>1863.098194385012</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y2" t="n">
-        <v>1472.9588624092</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231.8553933260938</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>81.7387539137581</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>81.7387539137581</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W4" t="n">
-        <v>680.6375233676413</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X4" t="n">
-        <v>452.6479724696239</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="Y4" t="n">
-        <v>231.8553933260938</v>
+        <v>370.014486981638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1555.338782035317</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881546</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881546</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,7 +4583,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052367</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3002.775414885893</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2671.712527542323</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2318.943872272208</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>1945.478114011129</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>1555.338782035317</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601583</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927764</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>653.208721551055</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="C7" t="n">
-        <v>484.2725386231481</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D7" t="n">
-        <v>334.1558992108123</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E7" t="n">
-        <v>334.1558992108123</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>187.265951712902</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218339</v>
@@ -4729,19 +4729,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4750,25 +4750,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592602</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592602</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>874.0013006945851</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>653.208721551055</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.878520285688</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1398.916003345276</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1040.650304738526</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>654.8620521402815</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1762.853122947589</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>1762.853122947589</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>1612.736483535254</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>1464.82338995286</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>3133.919937435996</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>2912.153322005522</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>2912.153322005522</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>2657.468833799635</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>2393.283717819377</v>
+        <v>739.4213478228399</v>
       </c>
       <c r="X10" t="n">
-        <v>2165.294166921359</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y10" t="n">
-        <v>1944.501587777829</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
@@ -5030,61 +5030,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594976</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619164</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I12" t="n">
-        <v>93.85065580060304</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J12" t="n">
-        <v>93.85065580060304</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>372.2013186925062</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>372.2013186925062</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>964.2196729446338</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N12" t="n">
-        <v>1586.31563634397</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O12" t="n">
-        <v>2133.192111344164</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.0589900220723</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>410.1424574638373</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D13" t="n">
-        <v>260.0258180515016</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E13" t="n">
-        <v>260.0258180515016</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="F13" t="n">
-        <v>260.0258180515016</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="G13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2177.346239107598</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>1957.66745682198</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1668.591243136707</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1413.90675493082</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
         <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>896.5000339958422</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.707454852312</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5270,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273903</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M15" t="n">
-        <v>692.9625378792909</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.560501433898</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1872.470231673185</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2296.093381168253</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881638</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,16 +5528,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400753</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2328.88018310307</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2109.278718126011</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1820.203491470209</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1565.519003264322</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1276.101833227361</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1048.112282329344</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>695.502065570315</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,25 +5750,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,13 +5835,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
         <v>2092.798483612594</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.868625753639</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297695</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297695</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662387</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727409</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583879</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.5467179762953</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>815.6105350483884</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1166.195182806535</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1654.485273605118</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2206.395003844405</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832665</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683104</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,13 +6947,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.07903472198</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="38">
@@ -7169,16 +7169,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098242</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819173</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695815</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>516.3896878871884</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>369.499740389278</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>202.303641104158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219839</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395908</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.580957587066223e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>162.8323761620821</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>244.6582034825755</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.61145443660504</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>130.3466769161723</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.29152613729343</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613729087</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>84.16945386597523</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537662</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.50758019582358</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.74287850523359</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.2652634529459</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>64.12421452922568</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228919</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>176.3785887617869</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>112.9792378643586</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.9994244361424</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>176.3785887617842</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>191.269178370228</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>114.1584408891651</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>40.23897475306289</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.9575407388549</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>949058.1005310207</v>
+        <v>949058.1005310203</v>
       </c>
     </row>
     <row r="3">
@@ -26320,22 +26320,22 @@
         <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190153</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="K2" t="n">
         <v>403573.2998450029</v>
@@ -26344,16 +26344,16 @@
         <v>403573.2998450031</v>
       </c>
       <c r="M2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="N2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="O2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="N2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>403573.2998450032</v>
-      </c>
-      <c r="P2" t="n">
-        <v>403573.2998450031</v>
       </c>
     </row>
     <row r="3">
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189853</v>
+        <v>313680.0588189856</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504171</v>
+        <v>11452.2631150414</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832908</v>
+        <v>81924.27863832924</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704897</v>
+        <v>3077.017355704785</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50348.70169477139</v>
+        <v>50348.70169477144</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314489</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314487</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
         <v>11160.49963056816</v>
@@ -26436,19 +26436,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26457,7 +26457,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1111551.766733433</v>
+        <v>-1111726.993051842</v>
       </c>
       <c r="C6" t="n">
-        <v>212232.8773476039</v>
+        <v>212232.8773476032</v>
       </c>
       <c r="D6" t="n">
         <v>212232.8773476033</v>
       </c>
       <c r="E6" t="n">
-        <v>-23642.80114437651</v>
+        <v>-23688.7061399423</v>
       </c>
       <c r="F6" t="n">
-        <v>279831.4746542607</v>
+        <v>279796.7367288253</v>
       </c>
       <c r="G6" t="n">
-        <v>291283.7377693023</v>
+        <v>291248.9998438666</v>
       </c>
       <c r="H6" t="n">
-        <v>291283.7377693024</v>
+        <v>291248.999843867</v>
       </c>
       <c r="I6" t="n">
-        <v>291283.7377693024</v>
+        <v>291248.9998438666</v>
       </c>
       <c r="J6" t="n">
-        <v>73752.53537202494</v>
+        <v>73717.79744658935</v>
       </c>
       <c r="K6" t="n">
-        <v>291283.7377693023</v>
+        <v>291248.9998438665</v>
       </c>
       <c r="L6" t="n">
-        <v>291283.7377693024</v>
+        <v>291248.9998438667</v>
       </c>
       <c r="M6" t="n">
-        <v>209359.4591309733</v>
+        <v>209324.7212055376</v>
       </c>
       <c r="N6" t="n">
-        <v>288206.7204135975</v>
+        <v>288171.982488162</v>
       </c>
       <c r="O6" t="n">
-        <v>291283.7377693025</v>
+        <v>291248.9998438667</v>
       </c>
       <c r="P6" t="n">
-        <v>291283.7377693026</v>
+        <v>291248.9998438669</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26960,25 +26960,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>268.2643481230873</v>
+        <v>268.2643481230875</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237136</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237134</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237136</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>162.9426808007976</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>115.2143833957787</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>135.3110394424787</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>70.24105037729998</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>142.831931740955</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>250.4953367499452</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>276.9082648170738</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.14319333601</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>24.97973351613501</v>
+        <v>147.1281388806943</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-3.292261534887825e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,37 +31355,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31394,7 +31394,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31443,16 +31443,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31461,19 +31461,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>419.0037247237562</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.13237155043</v>
+        <v>197.8673674492839</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982452</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779087</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,16 +32555,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
-        <v>479.6444630806909</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>402.2342772868842</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181827</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>447.1326187913569</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>351.5042614518786</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>154.5219885631796</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34448,19 +34448,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.049527853053078</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>281.1622857493972</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>55.73333352726556</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.821735783915</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>174.4792836591383</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334643</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
-        <v>337.5104291586726</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>263.67989750701</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>101.8925903961643</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>313.1582113770266</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.342014319133</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280113</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.0482712280113</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>208.9080170074342</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>20.54758114884936</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38096,19 +38096,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
